--- a/app/shift/shift.xlsx
+++ b/app/shift/shift.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a4356c8d9fefd57/ドキュメント/xlw-sample/app/shift/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31106" documentId="11_AD4D066CA252ABDACC1048B419D2F48C72EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5851DB8A-0E17-4922-A3FB-4B78AEB46ECC}"/>
+  <xr:revisionPtr revIDLastSave="41691" documentId="11_AD4D066CA252ABDACC1048B419D2F48C72EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{021B0688-78D0-4FE2-AEB6-65EF03273DCB}"/>
   <bookViews>
-    <workbookView xWindow="383" yWindow="712" windowWidth="19147" windowHeight="9983" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2318" yWindow="698" windowWidth="19147" windowHeight="9982" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conf" sheetId="3" r:id="rId1"/>
@@ -364,6 +364,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3038,8 +3042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD705CF-DBF6-480D-ACEA-1B5D650D37D6}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -3061,16 +3065,16 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="P1" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1" s="2">
         <v>0</v>
       </c>
       <c r="R1" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S1" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T1" s="2">
         <v>0</v>
@@ -3079,16 +3083,16 @@
         <v>1</v>
       </c>
       <c r="V1" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W1" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X1" s="2">
         <v>1</v>
       </c>
       <c r="Y1" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -3115,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="T2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="2">
         <v>1</v>
       </c>
       <c r="W2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="2">
         <v>1</v>
@@ -3145,13 +3149,13 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="2">
         <v>0</v>
@@ -3160,16 +3164,16 @@
         <v>1</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="2">
         <v>0</v>
       </c>
       <c r="W3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="2">
         <v>1</v>
@@ -3190,28 +3194,28 @@
         <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="2">
         <v>0</v>
@@ -3241,13 +3245,13 @@
         <v>1</v>
       </c>
       <c r="T5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="2">
         <v>0</v>
@@ -3256,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
